--- a/processed/cd_cart_hex_118.xlsx
+++ b/processed/cd_cart_hex_118.xlsx
@@ -6336,7 +6336,7 @@
         <v>0.3387096774193548</v>
       </c>
       <c r="O83" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P83" t="s">
         <v>683</v>
@@ -6383,7 +6383,7 @@
         <v>0.3387096774193548</v>
       </c>
       <c r="O84" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P84" t="s">
         <v>683</v>
@@ -6618,7 +6618,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="O89" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P89" t="s">
         <v>683</v>
@@ -7323,7 +7323,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O104" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P104" t="s">
         <v>683</v>
@@ -7417,7 +7417,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O106" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P106" t="s">
         <v>683</v>
@@ -9673,7 +9673,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O154" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P154" t="s">
         <v>683</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P169" t="s">
         <v>683</v>
@@ -10566,7 +10566,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O173" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P173" t="s">
         <v>683</v>
@@ -10942,7 +10942,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="O181" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P181" t="s">
         <v>683</v>
@@ -10989,7 +10989,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="O182" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P182" t="s">
         <v>683</v>
@@ -11459,7 +11459,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O192" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P192" t="s">
         <v>683</v>
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="O198" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P198" t="s">
         <v>683</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="O199" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P199" t="s">
         <v>683</v>
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="O203" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P203" t="s">
         <v>683</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="O213" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P213" t="s">
         <v>683</v>
@@ -13198,7 +13198,7 @@
         <v>0.1875</v>
       </c>
       <c r="O229" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P229" t="s">
         <v>683</v>
@@ -13245,7 +13245,7 @@
         <v>0.1875</v>
       </c>
       <c r="O230" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P230" t="s">
         <v>683</v>
@@ -13856,7 +13856,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O243" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P243" t="s">
         <v>683</v>
@@ -14141,7 +14141,7 @@
         <v>0.04458598726114649</v>
       </c>
       <c r="O249" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P249" t="s">
         <v>683</v>
@@ -14188,7 +14188,7 @@
         <v>0.04458598726114649</v>
       </c>
       <c r="O250" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P250" t="s">
         <v>683</v>
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="O288" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P288" t="s">
         <v>683</v>
@@ -16021,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="O289" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P289" t="s">
         <v>683</v>
@@ -16444,7 +16444,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O298" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P298" t="s">
         <v>683</v>
@@ -17575,7 +17575,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O322" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P322" t="s">
         <v>683</v>
@@ -17763,7 +17763,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O326" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P326" t="s">
         <v>683</v>
@@ -19317,7 +19317,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O359" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P359" t="s">
         <v>683</v>
@@ -20915,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="O393" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P393" t="s">
         <v>683</v>
@@ -21103,7 +21103,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O397" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P397" t="s">
         <v>683</v>
@@ -21714,7 +21714,7 @@
         <v>0</v>
       </c>
       <c r="O410" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P410" t="s">
         <v>683</v>
@@ -22184,7 +22184,7 @@
         <v>0.3709677419354839</v>
       </c>
       <c r="O420" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P420" t="s">
         <v>683</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="O439" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P439" t="s">
         <v>684</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="O444" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P444" t="s">
         <v>684</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="O448" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P448" t="s">
         <v>684</v>
@@ -23550,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="O449" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P449" t="s">
         <v>684</v>
@@ -23691,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="O452" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P452" t="s">
         <v>684</v>
@@ -24067,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="O460" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P460" t="s">
         <v>684</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="O461" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P461" t="s">
         <v>684</v>
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="O466" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P466" t="s">
         <v>684</v>
@@ -24631,7 +24631,7 @@
         <v>0</v>
       </c>
       <c r="O472" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P472" t="s">
         <v>684</v>
@@ -26558,7 +26558,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O513" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P513" t="s">
         <v>684</v>
@@ -28488,7 +28488,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O554" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P554" t="s">
         <v>684</v>
@@ -29381,7 +29381,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O573" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P573" t="s">
         <v>684</v>
@@ -29757,7 +29757,7 @@
         <v>0.004449388209121246</v>
       </c>
       <c r="O581" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P581" t="s">
         <v>684</v>
@@ -30371,7 +30371,7 @@
         <v>0.04458598726114649</v>
       </c>
       <c r="O594" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P594" t="s">
         <v>684</v>
@@ -30418,7 +30418,7 @@
         <v>0.04458598726114649</v>
       </c>
       <c r="O595" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P595" t="s">
         <v>684</v>
@@ -30747,7 +30747,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="O602" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P602" t="s">
         <v>684</v>
@@ -30794,7 +30794,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="O603" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P603" t="s">
         <v>684</v>
@@ -31358,7 +31358,7 @@
         <v>0.1875</v>
       </c>
       <c r="O615" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P615" t="s">
         <v>684</v>
@@ -31405,7 +31405,7 @@
         <v>0.1875</v>
       </c>
       <c r="O616" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P616" t="s">
         <v>684</v>
@@ -32439,7 +32439,7 @@
         <v>0.3387096774193548</v>
       </c>
       <c r="O638" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P638" t="s">
         <v>684</v>
@@ -32486,7 +32486,7 @@
         <v>0.3387096774193548</v>
       </c>
       <c r="O639" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P639" t="s">
         <v>684</v>
@@ -32768,7 +32768,7 @@
         <v>0.3709677419354839</v>
       </c>
       <c r="O645" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P645" t="s">
         <v>684</v>
@@ -33473,7 +33473,7 @@
         <v>0.6538461538461539</v>
       </c>
       <c r="O660" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P660" t="s">
         <v>684</v>
@@ -36813,7 +36813,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O731" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P731" t="s">
         <v>684</v>
@@ -36907,7 +36907,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O733" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P733" t="s">
         <v>684</v>
@@ -37330,7 +37330,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O742" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P742" t="s">
         <v>684</v>
@@ -37847,7 +37847,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O753" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P753" t="s">
         <v>684</v>
@@ -38458,7 +38458,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O766" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P766" t="s">
         <v>684</v>
@@ -38646,7 +38646,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O770" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P770" t="s">
         <v>684</v>
@@ -40858,7 +40858,7 @@
         <v>0.9535087719298244</v>
       </c>
       <c r="O817" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P817" t="s">
         <v>684</v>
